--- a/VIDA2/data/BRASILIA.xlsx
+++ b/VIDA2/data/BRASILIA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>attacked</t>
+          <t>females</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>denounce</t>
+          <t>Attacks per female</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>females</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Attacks per female</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Denounces per female</t>
         </is>
@@ -469,22 +459,18 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>5200258003001</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5200258003001</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0.828</v>
+        <v>7.154</v>
       </c>
       <c r="D2" t="n">
-        <v>0.28</v>
+        <v>125.3393828393828</v>
       </c>
       <c r="E2" t="n">
-        <v>7.154</v>
-      </c>
-      <c r="F2" t="n">
-        <v>125.3393828393828</v>
-      </c>
-      <c r="G2" t="n">
         <v>42.52759185259184</v>
       </c>
     </row>
@@ -492,22 +478,18 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>5200258003002</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5200258003002</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9198396793587176</v>
+        <v>7.346693386773547</v>
       </c>
       <c r="D3" t="n">
-        <v>0.342685370741483</v>
+        <v>135.463711272682</v>
       </c>
       <c r="E3" t="n">
-        <v>7.346693386773547</v>
-      </c>
-      <c r="F3" t="n">
-        <v>135.463711272682</v>
-      </c>
-      <c r="G3" t="n">
         <v>50.03789990380817</v>
       </c>
     </row>
@@ -515,22 +497,18 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>5200258003003</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5200258003003</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>1.042</v>
+        <v>8.904</v>
       </c>
       <c r="D4" t="n">
-        <v>0.326</v>
+        <v>119.8224659241687</v>
       </c>
       <c r="E4" t="n">
-        <v>8.904</v>
-      </c>
-      <c r="F4" t="n">
-        <v>119.8224659241687</v>
-      </c>
-      <c r="G4" t="n">
         <v>39.74891950155106</v>
       </c>
     </row>
@@ -538,22 +516,18 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>5200258003004</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5200258003004</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>1.194</v>
+        <v>9.135999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.434</v>
+        <v>138.4685071464483</v>
       </c>
       <c r="E5" t="n">
-        <v>9.135999999999999</v>
-      </c>
-      <c r="F5" t="n">
-        <v>138.4685071464483</v>
-      </c>
-      <c r="G5" t="n">
         <v>50.67498938969523</v>
       </c>
     </row>
@@ -561,22 +535,18 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>5200258003005</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5200258003005</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>1.19</v>
+        <v>10.838</v>
       </c>
       <c r="D6" t="n">
-        <v>0.44</v>
+        <v>114.5641621794097</v>
       </c>
       <c r="E6" t="n">
-        <v>10.838</v>
-      </c>
-      <c r="F6" t="n">
-        <v>114.5641621794097</v>
-      </c>
-      <c r="G6" t="n">
         <v>40.79345454167436</v>
       </c>
     </row>
@@ -584,22 +554,18 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>5200258003006</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5200258003006</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>1.604</v>
+        <v>14.264</v>
       </c>
       <c r="D7" t="n">
-        <v>0.584</v>
+        <v>116.9330849006962</v>
       </c>
       <c r="E7" t="n">
-        <v>14.264</v>
-      </c>
-      <c r="F7" t="n">
-        <v>116.9330849006962</v>
-      </c>
-      <c r="G7" t="n">
         <v>41.83555501953062</v>
       </c>
     </row>
@@ -607,22 +573,18 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>5200258003007</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5200258003007</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>2.496</v>
+        <v>21.752</v>
       </c>
       <c r="D8" t="n">
-        <v>0.914</v>
+        <v>117.4196671346158</v>
       </c>
       <c r="E8" t="n">
-        <v>21.752</v>
-      </c>
-      <c r="F8" t="n">
-        <v>117.4196671346158</v>
-      </c>
-      <c r="G8" t="n">
         <v>42.97810495948288</v>
       </c>
     </row>
@@ -630,22 +592,18 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>5205497003001</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5205497003001</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>1.672</v>
+        <v>13.978</v>
       </c>
       <c r="D9" t="n">
-        <v>0.642</v>
+        <v>124.763089445515</v>
       </c>
       <c r="E9" t="n">
-        <v>13.978</v>
-      </c>
-      <c r="F9" t="n">
-        <v>124.763089445515</v>
-      </c>
-      <c r="G9" t="n">
         <v>48.079711950491</v>
       </c>
     </row>
@@ -653,22 +611,18 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>5205497003002</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5205497003002</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>1.578</v>
+        <v>13.998</v>
       </c>
       <c r="D10" t="n">
-        <v>0.612</v>
+        <v>116.4541092813849</v>
       </c>
       <c r="E10" t="n">
-        <v>13.998</v>
-      </c>
-      <c r="F10" t="n">
-        <v>116.4541092813849</v>
-      </c>
-      <c r="G10" t="n">
         <v>45.27103261203879</v>
       </c>
     </row>
@@ -676,22 +630,18 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>5208004003001</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5208004003001</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>0.838</v>
+        <v>7.07</v>
       </c>
       <c r="D11" t="n">
-        <v>0.322</v>
+        <v>123.753193701723</v>
       </c>
       <c r="E11" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="F11" t="n">
-        <v>123.753193701723</v>
-      </c>
-      <c r="G11" t="n">
         <v>47.31515233132878</v>
       </c>
     </row>
@@ -699,22 +649,18 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>5208004003002</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5208004003002</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8139999999999999</v>
+        <v>7.08</v>
       </c>
       <c r="D12" t="n">
-        <v>0.27</v>
+        <v>119.7879173114466</v>
       </c>
       <c r="E12" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="F12" t="n">
-        <v>119.7879173114466</v>
-      </c>
-      <c r="G12" t="n">
         <v>40.41132919368211</v>
       </c>
     </row>
@@ -722,22 +668,18 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>5208004003003</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5208004003003</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>1.448</v>
+        <v>12.85</v>
       </c>
       <c r="D13" t="n">
-        <v>0.516</v>
+        <v>117.208081193944</v>
       </c>
       <c r="E13" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="F13" t="n">
-        <v>117.208081193944</v>
-      </c>
-      <c r="G13" t="n">
         <v>41.66464453122143</v>
       </c>
     </row>
@@ -745,22 +687,18 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>5208004003004</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5208004003004</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>1.348</v>
+        <v>10.324</v>
       </c>
       <c r="D14" t="n">
-        <v>0.492</v>
+        <v>137.46855056708</v>
       </c>
       <c r="E14" t="n">
-        <v>10.324</v>
-      </c>
-      <c r="F14" t="n">
-        <v>137.46855056708</v>
-      </c>
-      <c r="G14" t="n">
         <v>48.71208252531778</v>
       </c>
     </row>
@@ -768,22 +706,18 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>5208004003005</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5208004003005</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>1.438</v>
+        <v>11.846</v>
       </c>
       <c r="D15" t="n">
-        <v>0.524</v>
+        <v>128.4677698462528</v>
       </c>
       <c r="E15" t="n">
-        <v>11.846</v>
-      </c>
-      <c r="F15" t="n">
-        <v>128.4677698462528</v>
-      </c>
-      <c r="G15" t="n">
         <v>47.89724133795339</v>
       </c>
     </row>
@@ -791,22 +725,18 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>5212501003001</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5212501003001</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>1.008</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.404</v>
+        <v>125.6829786226845</v>
       </c>
       <c r="E16" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="F16" t="n">
-        <v>125.6829786226845</v>
-      </c>
-      <c r="G16" t="n">
         <v>50.83073201308493</v>
       </c>
     </row>
@@ -814,22 +744,18 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>5212501003002</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>5212501003002</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>0.856</v>
+        <v>7.854</v>
       </c>
       <c r="D17" t="n">
-        <v>0.294</v>
+        <v>116.9490537240536</v>
       </c>
       <c r="E17" t="n">
-        <v>7.854</v>
-      </c>
-      <c r="F17" t="n">
-        <v>116.9490537240536</v>
-      </c>
-      <c r="G17" t="n">
         <v>39.21679154179154</v>
       </c>
     </row>
@@ -837,22 +763,18 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>5212501003003</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5212501003003</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>2.666</v>
+        <v>20.464</v>
       </c>
       <c r="D18" t="n">
-        <v>0.904</v>
+        <v>133.8128112073141</v>
       </c>
       <c r="E18" t="n">
-        <v>20.464</v>
-      </c>
-      <c r="F18" t="n">
-        <v>133.8128112073141</v>
-      </c>
-      <c r="G18" t="n">
         <v>45.61264207852918</v>
       </c>
     </row>
@@ -860,22 +782,18 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>5212501003004</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5212501003004</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>0.918</v>
+        <v>7.8</v>
       </c>
       <c r="D19" t="n">
-        <v>0.312</v>
+        <v>124.7832397994162</v>
       </c>
       <c r="E19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F19" t="n">
-        <v>124.7832397994162</v>
-      </c>
-      <c r="G19" t="n">
         <v>44.65441225441221</v>
       </c>
     </row>
@@ -883,22 +801,18 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>5212501003005</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5212501003005</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>1.454</v>
+        <v>13.098</v>
       </c>
       <c r="D20" t="n">
-        <v>0.496</v>
+        <v>113.3348149838525</v>
       </c>
       <c r="E20" t="n">
-        <v>13.098</v>
-      </c>
-      <c r="F20" t="n">
-        <v>113.3348149838525</v>
-      </c>
-      <c r="G20" t="n">
         <v>39.27128633880887</v>
       </c>
     </row>
@@ -906,22 +820,18 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>5212501003006</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5212501003006</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>1.472</v>
+        <v>13.59</v>
       </c>
       <c r="D21" t="n">
-        <v>0.556</v>
+        <v>111.6132395133868</v>
       </c>
       <c r="E21" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="F21" t="n">
-        <v>111.6132395133868</v>
-      </c>
-      <c r="G21" t="n">
         <v>41.35433724369784</v>
       </c>
     </row>
@@ -929,22 +839,18 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>5212501003007</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>5212501003007</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>1.91</v>
+        <v>15.66</v>
       </c>
       <c r="D22" t="n">
-        <v>0.706</v>
+        <v>124.6847840875267</v>
       </c>
       <c r="E22" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="F22" t="n">
-        <v>124.6847840875267</v>
-      </c>
-      <c r="G22" t="n">
         <v>45.75937370521966</v>
       </c>
     </row>
@@ -952,22 +858,18 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>5215231003001</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5215231003001</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>0.962</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.314</v>
+        <v>120.7756438006437</v>
       </c>
       <c r="E23" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="F23" t="n">
-        <v>120.7756438006437</v>
-      </c>
-      <c r="G23" t="n">
         <v>38.57365967365968</v>
       </c>
     </row>
@@ -975,22 +877,18 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>5215231003002</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5215231003002</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>1.85</v>
+        <v>15.44</v>
       </c>
       <c r="D24" t="n">
-        <v>0.638</v>
+        <v>124.1018258798828</v>
       </c>
       <c r="E24" t="n">
-        <v>15.44</v>
-      </c>
-      <c r="F24" t="n">
-        <v>124.1018258798828</v>
-      </c>
-      <c r="G24" t="n">
         <v>42.93262530390743</v>
       </c>
     </row>
@@ -998,22 +896,18 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>5215231003003</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>5215231003003</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>1.084</v>
+        <v>9.346</v>
       </c>
       <c r="D25" t="n">
-        <v>0.394</v>
+        <v>125.4103833925006</v>
       </c>
       <c r="E25" t="n">
-        <v>9.346</v>
-      </c>
-      <c r="F25" t="n">
-        <v>125.4103833925006</v>
-      </c>
-      <c r="G25" t="n">
         <v>44.5115274960005</v>
       </c>
     </row>
@@ -1021,22 +915,18 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>5215231003004</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>5215231003004</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>1.766</v>
+        <v>14.294</v>
       </c>
       <c r="D26" t="n">
-        <v>0.672</v>
+        <v>127.7401670501616</v>
       </c>
       <c r="E26" t="n">
-        <v>14.294</v>
-      </c>
-      <c r="F26" t="n">
-        <v>127.7401670501616</v>
-      </c>
-      <c r="G26" t="n">
         <v>48.21770389576617</v>
       </c>
     </row>
@@ -1044,22 +934,18 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>5215603001001</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>5215603001001</t>
+        </is>
       </c>
       <c r="C27" t="n">
-        <v>1.55</v>
+        <v>13.174</v>
       </c>
       <c r="D27" t="n">
-        <v>0.552</v>
+        <v>120.6783194203682</v>
       </c>
       <c r="E27" t="n">
-        <v>13.174</v>
-      </c>
-      <c r="F27" t="n">
-        <v>120.6783194203682</v>
-      </c>
-      <c r="G27" t="n">
         <v>42.50051941492642</v>
       </c>
     </row>
@@ -1067,22 +953,18 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>5217609003001</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>5217609003001</t>
+        </is>
       </c>
       <c r="C28" t="n">
-        <v>1.128</v>
+        <v>9.816000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.428</v>
+        <v>124.3701397415793</v>
       </c>
       <c r="E28" t="n">
-        <v>9.816000000000001</v>
-      </c>
-      <c r="F28" t="n">
-        <v>124.3701397415793</v>
-      </c>
-      <c r="G28" t="n">
         <v>47.36619389382546</v>
       </c>
     </row>
@@ -1090,22 +972,18 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>5217609003002</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5217609003002</t>
+        </is>
       </c>
       <c r="C29" t="n">
-        <v>1.782</v>
+        <v>14.83</v>
       </c>
       <c r="D29" t="n">
-        <v>0.62</v>
+        <v>123.8364958350205</v>
       </c>
       <c r="E29" t="n">
-        <v>14.83</v>
-      </c>
-      <c r="F29" t="n">
-        <v>123.8364958350205</v>
-      </c>
-      <c r="G29" t="n">
         <v>42.9854532898489</v>
       </c>
     </row>
@@ -1113,22 +991,18 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>5217609003003</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>5217609003003</t>
+        </is>
       </c>
       <c r="C30" t="n">
-        <v>1.832</v>
+        <v>15.77</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6919999999999999</v>
+        <v>122.3933394333589</v>
       </c>
       <c r="E30" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="F30" t="n">
-        <v>122.3933394333589</v>
-      </c>
-      <c r="G30" t="n">
         <v>46.25008839529967</v>
       </c>
     </row>
@@ -1136,22 +1010,18 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>5219753003001</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>5219753003001</t>
+        </is>
       </c>
       <c r="C31" t="n">
-        <v>1.81</v>
+        <v>15.036</v>
       </c>
       <c r="D31" t="n">
-        <v>0.64</v>
+        <v>124.9870889789002</v>
       </c>
       <c r="E31" t="n">
-        <v>15.036</v>
-      </c>
-      <c r="F31" t="n">
-        <v>124.9870889789002</v>
-      </c>
-      <c r="G31" t="n">
         <v>44.45031185019737</v>
       </c>
     </row>
@@ -1159,22 +1029,18 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>5219753003002</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>5219753003002</t>
+        </is>
       </c>
       <c r="C32" t="n">
-        <v>1.964</v>
+        <v>16.512</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7</v>
+        <v>122.6144638664264</v>
       </c>
       <c r="E32" t="n">
-        <v>16.512</v>
-      </c>
-      <c r="F32" t="n">
-        <v>122.6144638664264</v>
-      </c>
-      <c r="G32" t="n">
         <v>42.77750176170221</v>
       </c>
     </row>
@@ -1182,22 +1048,18 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>5221858003001</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>5221858003001</t>
+        </is>
       </c>
       <c r="C33" t="n">
-        <v>0.876</v>
+        <v>7.926</v>
       </c>
       <c r="D33" t="n">
-        <v>0.318</v>
+        <v>115.5601454101453</v>
       </c>
       <c r="E33" t="n">
-        <v>7.926</v>
-      </c>
-      <c r="F33" t="n">
-        <v>115.5601454101453</v>
-      </c>
-      <c r="G33" t="n">
         <v>40.70960705960706</v>
       </c>
     </row>
@@ -1205,22 +1067,18 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>5221858003002</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>5221858003002</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>0.892</v>
+        <v>7.464</v>
       </c>
       <c r="D34" t="n">
-        <v>0.292</v>
+        <v>128.6547135870665</v>
       </c>
       <c r="E34" t="n">
-        <v>7.464</v>
-      </c>
-      <c r="F34" t="n">
-        <v>128.6547135870665</v>
-      </c>
-      <c r="G34" t="n">
         <v>42.67899877899877</v>
       </c>
     </row>
@@ -1228,22 +1086,18 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>5221858003003</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>5221858003003</t>
+        </is>
       </c>
       <c r="C35" t="n">
-        <v>0.852</v>
+        <v>7.148</v>
       </c>
       <c r="D35" t="n">
-        <v>0.318</v>
+        <v>126.4315312138841</v>
       </c>
       <c r="E35" t="n">
-        <v>7.148</v>
-      </c>
-      <c r="F35" t="n">
-        <v>126.4315312138841</v>
-      </c>
-      <c r="G35" t="n">
         <v>47.59306804306802</v>
       </c>
     </row>
@@ -1251,22 +1105,18 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>5221858003004</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>5221858003004</t>
+        </is>
       </c>
       <c r="C36" t="n">
-        <v>0.852</v>
+        <v>7.734</v>
       </c>
       <c r="D36" t="n">
-        <v>0.334</v>
+        <v>121.8244760141818</v>
       </c>
       <c r="E36" t="n">
-        <v>7.734</v>
-      </c>
-      <c r="F36" t="n">
-        <v>121.8244760141818</v>
-      </c>
-      <c r="G36" t="n">
         <v>48.99638025373316</v>
       </c>
     </row>
@@ -1274,22 +1124,18 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>5221858003005</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>5221858003005</t>
+        </is>
       </c>
       <c r="C37" t="n">
-        <v>1.196</v>
+        <v>10.162</v>
       </c>
       <c r="D37" t="n">
-        <v>0.402</v>
+        <v>122.8828853293249</v>
       </c>
       <c r="E37" t="n">
-        <v>10.162</v>
-      </c>
-      <c r="F37" t="n">
-        <v>122.8828853293249</v>
-      </c>
-      <c r="G37" t="n">
         <v>43.54357778444464</v>
       </c>
     </row>
@@ -1297,22 +1143,18 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>5221858003006</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>5221858003006</t>
+        </is>
       </c>
       <c r="C38" t="n">
-        <v>1.486</v>
+        <v>13.388</v>
       </c>
       <c r="D38" t="n">
-        <v>0.538</v>
+        <v>115.1102166006022</v>
       </c>
       <c r="E38" t="n">
-        <v>13.388</v>
-      </c>
-      <c r="F38" t="n">
-        <v>115.1102166006022</v>
-      </c>
-      <c r="G38" t="n">
         <v>41.53903259025412</v>
       </c>
     </row>
@@ -1320,22 +1162,18 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>5221858003007</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>5221858003007</t>
+        </is>
       </c>
       <c r="C39" t="n">
-        <v>1.612</v>
+        <v>14.32</v>
       </c>
       <c r="D39" t="n">
-        <v>0.63</v>
+        <v>116.221298447767</v>
       </c>
       <c r="E39" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="F39" t="n">
-        <v>116.221298447767</v>
-      </c>
-      <c r="G39" t="n">
         <v>44.11531093478394</v>
       </c>
     </row>
@@ -1343,22 +1181,18 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>5300108005001</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>5300108005001</t>
+        </is>
       </c>
       <c r="C40" t="n">
-        <v>6.456</v>
+        <v>55.382</v>
       </c>
       <c r="D40" t="n">
-        <v>2.31</v>
+        <v>117.7116695499411</v>
       </c>
       <c r="E40" t="n">
-        <v>55.382</v>
-      </c>
-      <c r="F40" t="n">
-        <v>117.7116695499411</v>
-      </c>
-      <c r="G40" t="n">
         <v>42.07745089463315</v>
       </c>
     </row>
@@ -1366,22 +1200,18 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>5300108005002</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5300108005002</t>
+        </is>
       </c>
       <c r="C41" t="n">
-        <v>4.91</v>
+        <v>43.616</v>
       </c>
       <c r="D41" t="n">
-        <v>1.768</v>
+        <v>114.5687703716214</v>
       </c>
       <c r="E41" t="n">
-        <v>43.616</v>
-      </c>
-      <c r="F41" t="n">
-        <v>114.5687703716214</v>
-      </c>
-      <c r="G41" t="n">
         <v>41.18410152522361</v>
       </c>
     </row>
@@ -1389,22 +1219,18 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>5300108005003</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>5300108005003</t>
+        </is>
       </c>
       <c r="C42" t="n">
-        <v>1.704</v>
+        <v>13.188</v>
       </c>
       <c r="D42" t="n">
-        <v>0.614</v>
+        <v>133.4753914601424</v>
       </c>
       <c r="E42" t="n">
-        <v>13.188</v>
-      </c>
-      <c r="F42" t="n">
-        <v>133.4753914601424</v>
-      </c>
-      <c r="G42" t="n">
         <v>47.64854025747216</v>
       </c>
     </row>
@@ -1412,22 +1238,18 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>5300108005004</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>5300108005004</t>
+        </is>
       </c>
       <c r="C43" t="n">
-        <v>2.762</v>
+        <v>24.174</v>
       </c>
       <c r="D43" t="n">
-        <v>0.998</v>
+        <v>115.6666962310846</v>
       </c>
       <c r="E43" t="n">
-        <v>24.174</v>
-      </c>
-      <c r="F43" t="n">
-        <v>115.6666962310846</v>
-      </c>
-      <c r="G43" t="n">
         <v>41.90448316183881</v>
       </c>
     </row>
@@ -1435,22 +1257,18 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>5300108005005</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>5300108005005</t>
+        </is>
       </c>
       <c r="C44" t="n">
-        <v>2.344</v>
+        <v>19.234</v>
       </c>
       <c r="D44" t="n">
-        <v>0.82</v>
+        <v>124.9796094285975</v>
       </c>
       <c r="E44" t="n">
-        <v>19.234</v>
-      </c>
-      <c r="F44" t="n">
-        <v>124.9796094285975</v>
-      </c>
-      <c r="G44" t="n">
         <v>43.88737170147859</v>
       </c>
     </row>
@@ -1458,22 +1276,18 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>5300108005006</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>5300108005006</t>
+        </is>
       </c>
       <c r="C45" t="n">
-        <v>2.622</v>
+        <v>21.354</v>
       </c>
       <c r="D45" t="n">
-        <v>0.99</v>
+        <v>124.6824463969368</v>
       </c>
       <c r="E45" t="n">
-        <v>21.354</v>
-      </c>
-      <c r="F45" t="n">
-        <v>124.6824463969368</v>
-      </c>
-      <c r="G45" t="n">
         <v>47.69770969425807</v>
       </c>
     </row>
@@ -1481,22 +1295,18 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>5300108005007</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>5300108005007</t>
+        </is>
       </c>
       <c r="C46" t="n">
-        <v>5.302</v>
+        <v>42.782</v>
       </c>
       <c r="D46" t="n">
-        <v>1.88</v>
+        <v>125.2719181547113</v>
       </c>
       <c r="E46" t="n">
-        <v>42.782</v>
-      </c>
-      <c r="F46" t="n">
-        <v>125.2719181547113</v>
-      </c>
-      <c r="G46" t="n">
         <v>44.88112225700901</v>
       </c>
     </row>
@@ -1504,22 +1314,18 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>5300108005008</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>5300108005008</t>
+        </is>
       </c>
       <c r="C47" t="n">
-        <v>4.106</v>
+        <v>35.548</v>
       </c>
       <c r="D47" t="n">
-        <v>1.594</v>
+        <v>117.2898610721039</v>
       </c>
       <c r="E47" t="n">
-        <v>35.548</v>
-      </c>
-      <c r="F47" t="n">
-        <v>117.2898610721039</v>
-      </c>
-      <c r="G47" t="n">
         <v>45.62933015938008</v>
       </c>
     </row>
@@ -1527,22 +1333,18 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
-        <v>5300108005009</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>5300108005009</t>
+        </is>
       </c>
       <c r="C48" t="n">
-        <v>3.962</v>
+        <v>33.178</v>
       </c>
       <c r="D48" t="n">
-        <v>1.41</v>
+        <v>121.6889005880822</v>
       </c>
       <c r="E48" t="n">
-        <v>33.178</v>
-      </c>
-      <c r="F48" t="n">
-        <v>121.6889005880822</v>
-      </c>
-      <c r="G48" t="n">
         <v>43.18108712583192</v>
       </c>
     </row>
@@ -1550,22 +1352,18 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>5300108005010</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>5300108005010</t>
+        </is>
       </c>
       <c r="C49" t="n">
-        <v>3.882</v>
+        <v>30.008</v>
       </c>
       <c r="D49" t="n">
-        <v>1.34</v>
+        <v>130.0897700247567</v>
       </c>
       <c r="E49" t="n">
-        <v>30.008</v>
-      </c>
-      <c r="F49" t="n">
-        <v>130.0897700247567</v>
-      </c>
-      <c r="G49" t="n">
         <v>45.05210202327117</v>
       </c>
     </row>
@@ -1573,22 +1371,18 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>5300108005011</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>5300108005011</t>
+        </is>
       </c>
       <c r="C50" t="n">
-        <v>3.464</v>
+        <v>30.658</v>
       </c>
       <c r="D50" t="n">
-        <v>1.266</v>
+        <v>114.3044640499783</v>
       </c>
       <c r="E50" t="n">
-        <v>30.658</v>
-      </c>
-      <c r="F50" t="n">
-        <v>114.3044640499783</v>
-      </c>
-      <c r="G50" t="n">
         <v>41.92081697462215</v>
       </c>
     </row>
@@ -1596,22 +1390,18 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
-        <v>5300108005012</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>5300108005012</t>
+        </is>
       </c>
       <c r="C51" t="n">
-        <v>2.114</v>
+        <v>17.818</v>
       </c>
       <c r="D51" t="n">
-        <v>0.752</v>
+        <v>121.7365404345078</v>
       </c>
       <c r="E51" t="n">
-        <v>17.818</v>
-      </c>
-      <c r="F51" t="n">
-        <v>121.7365404345078</v>
-      </c>
-      <c r="G51" t="n">
         <v>43.90758127985411</v>
       </c>
     </row>
@@ -1619,22 +1409,18 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>5300108005013</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>5300108005013</t>
+        </is>
       </c>
       <c r="C52" t="n">
-        <v>2.636</v>
+        <v>21.526</v>
       </c>
       <c r="D52" t="n">
-        <v>0.878</v>
+        <v>125.1926518993995</v>
       </c>
       <c r="E52" t="n">
-        <v>21.526</v>
-      </c>
-      <c r="F52" t="n">
-        <v>125.1926518993995</v>
-      </c>
-      <c r="G52" t="n">
         <v>41.86847630692608</v>
       </c>
     </row>
@@ -1642,22 +1428,18 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
-        <v>5300108005014</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>5300108005014</t>
+        </is>
       </c>
       <c r="C53" t="n">
-        <v>2.894</v>
+        <v>24.992</v>
       </c>
       <c r="D53" t="n">
-        <v>1.038</v>
+        <v>119.0921745983889</v>
       </c>
       <c r="E53" t="n">
-        <v>24.992</v>
-      </c>
-      <c r="F53" t="n">
-        <v>119.0921745983889</v>
-      </c>
-      <c r="G53" t="n">
         <v>42.76804036362123</v>
       </c>
     </row>
@@ -1665,22 +1447,18 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
-        <v>5300108005015</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>5300108005015</t>
+        </is>
       </c>
       <c r="C54" t="n">
-        <v>3.692</v>
+        <v>30.834</v>
       </c>
       <c r="D54" t="n">
-        <v>1.37</v>
+        <v>121.4631586518249</v>
       </c>
       <c r="E54" t="n">
-        <v>30.834</v>
-      </c>
-      <c r="F54" t="n">
-        <v>121.4631586518249</v>
-      </c>
-      <c r="G54" t="n">
         <v>45.28879257471911</v>
       </c>
     </row>
@@ -1688,22 +1466,18 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
-        <v>5300108005016</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>5300108005016</t>
+        </is>
       </c>
       <c r="C55" t="n">
-        <v>5.08</v>
+        <v>42.842</v>
       </c>
       <c r="D55" t="n">
-        <v>1.834</v>
+        <v>119.4430366629275</v>
       </c>
       <c r="E55" t="n">
-        <v>42.842</v>
-      </c>
-      <c r="F55" t="n">
-        <v>119.4430366629275</v>
-      </c>
-      <c r="G55" t="n">
         <v>43.30221708607012</v>
       </c>
     </row>
@@ -1711,22 +1485,18 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
-        <v>5300108005017</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>5300108005017</t>
+        </is>
       </c>
       <c r="C56" t="n">
-        <v>2.134</v>
+        <v>18.222</v>
       </c>
       <c r="D56" t="n">
-        <v>0.758</v>
+        <v>120.1306633116376</v>
       </c>
       <c r="E56" t="n">
-        <v>18.222</v>
-      </c>
-      <c r="F56" t="n">
-        <v>120.1306633116376</v>
-      </c>
-      <c r="G56" t="n">
         <v>42.30364842092539</v>
       </c>
     </row>
@@ -1734,22 +1504,18 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
-        <v>5300108005018</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>5300108005018</t>
+        </is>
       </c>
       <c r="C57" t="n">
-        <v>3.066</v>
+        <v>24.616</v>
       </c>
       <c r="D57" t="n">
-        <v>1.124</v>
+        <v>127.6312728565133</v>
       </c>
       <c r="E57" t="n">
-        <v>24.616</v>
-      </c>
-      <c r="F57" t="n">
-        <v>127.6312728565133</v>
-      </c>
-      <c r="G57" t="n">
         <v>46.60765815479221</v>
       </c>
     </row>
@@ -1757,22 +1523,18 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
-        <v>5300108005019</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>5300108005019</t>
+        </is>
       </c>
       <c r="C58" t="n">
-        <v>4.65</v>
+        <v>36.836</v>
       </c>
       <c r="D58" t="n">
-        <v>1.598</v>
+        <v>128.4723343902108</v>
       </c>
       <c r="E58" t="n">
-        <v>36.836</v>
-      </c>
-      <c r="F58" t="n">
-        <v>128.4723343902108</v>
-      </c>
-      <c r="G58" t="n">
         <v>43.88240912642468</v>
       </c>
     </row>
@@ -1780,22 +1542,18 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
-        <v>5300108005020</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>5300108005020</t>
+        </is>
       </c>
       <c r="C59" t="n">
-        <v>2.878</v>
+        <v>23.53</v>
       </c>
       <c r="D59" t="n">
-        <v>0.972</v>
+        <v>125.0070692247846</v>
       </c>
       <c r="E59" t="n">
-        <v>23.53</v>
-      </c>
-      <c r="F59" t="n">
-        <v>125.0070692247846</v>
-      </c>
-      <c r="G59" t="n">
         <v>42.35376471082033</v>
       </c>
     </row>
@@ -1803,22 +1561,18 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>5300108005021</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>5300108005021</t>
+        </is>
       </c>
       <c r="C60" t="n">
-        <v>1.612</v>
+        <v>14.158</v>
       </c>
       <c r="D60" t="n">
-        <v>0.574</v>
+        <v>118.1704500641137</v>
       </c>
       <c r="E60" t="n">
-        <v>14.158</v>
-      </c>
-      <c r="F60" t="n">
-        <v>118.1704500641137</v>
-      </c>
-      <c r="G60" t="n">
         <v>43.20127703364074</v>
       </c>
     </row>
@@ -1826,22 +1580,18 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>5300108005022</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>5300108005022</t>
+        </is>
       </c>
       <c r="C61" t="n">
-        <v>2.376</v>
+        <v>18.588</v>
       </c>
       <c r="D61" t="n">
-        <v>0.792</v>
+        <v>130.5097655659437</v>
       </c>
       <c r="E61" t="n">
-        <v>18.588</v>
-      </c>
-      <c r="F61" t="n">
-        <v>130.5097655659437</v>
-      </c>
-      <c r="G61" t="n">
         <v>43.45404517286971</v>
       </c>
     </row>
@@ -1849,22 +1599,18 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>5300108005023</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>5300108005023</t>
+        </is>
       </c>
       <c r="C62" t="n">
-        <v>2.14</v>
+        <v>17.306</v>
       </c>
       <c r="D62" t="n">
-        <v>0.766</v>
+        <v>126.6427808402728</v>
       </c>
       <c r="E62" t="n">
-        <v>17.306</v>
-      </c>
-      <c r="F62" t="n">
-        <v>126.6427808402728</v>
-      </c>
-      <c r="G62" t="n">
         <v>45.97051938683737</v>
       </c>
     </row>
@@ -1872,22 +1618,18 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>5300108005024</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>5300108005024</t>
+        </is>
       </c>
       <c r="C63" t="n">
-        <v>2.718</v>
+        <v>22.292</v>
       </c>
       <c r="D63" t="n">
-        <v>0.994</v>
+        <v>124.9379621184572</v>
       </c>
       <c r="E63" t="n">
-        <v>22.292</v>
-      </c>
-      <c r="F63" t="n">
-        <v>124.9379621184572</v>
-      </c>
-      <c r="G63" t="n">
         <v>45.27379653878895</v>
       </c>
     </row>
@@ -1895,22 +1637,18 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
-        <v>5300108005025</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>5300108005025</t>
+        </is>
       </c>
       <c r="C64" t="n">
-        <v>2.744</v>
+        <v>21.73</v>
       </c>
       <c r="D64" t="n">
-        <v>0.988</v>
+        <v>129.229436273272</v>
       </c>
       <c r="E64" t="n">
-        <v>21.73</v>
-      </c>
-      <c r="F64" t="n">
-        <v>129.229436273272</v>
-      </c>
-      <c r="G64" t="n">
         <v>46.7859455724096</v>
       </c>
     </row>
@@ -1918,22 +1656,18 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>5300108005026</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>5300108005026</t>
+        </is>
       </c>
       <c r="C65" t="n">
-        <v>2.684</v>
+        <v>21.76</v>
       </c>
       <c r="D65" t="n">
-        <v>0.98</v>
+        <v>127.2453863135822</v>
       </c>
       <c r="E65" t="n">
-        <v>21.76</v>
-      </c>
-      <c r="F65" t="n">
-        <v>127.2453863135822</v>
-      </c>
-      <c r="G65" t="n">
         <v>47.09663304691052</v>
       </c>
     </row>
@@ -1941,22 +1675,18 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
-        <v>5300108005027</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>5300108005027</t>
+        </is>
       </c>
       <c r="C66" t="n">
-        <v>1.874</v>
+        <v>15.418</v>
       </c>
       <c r="D66" t="n">
-        <v>0.71</v>
+        <v>124.4260831609176</v>
       </c>
       <c r="E66" t="n">
-        <v>15.418</v>
-      </c>
-      <c r="F66" t="n">
-        <v>124.4260831609176</v>
-      </c>
-      <c r="G66" t="n">
         <v>47.63770482191268</v>
       </c>
     </row>
@@ -1964,22 +1694,18 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>5300108005028</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>5300108005028</t>
+        </is>
       </c>
       <c r="C67" t="n">
-        <v>3.596</v>
+        <v>28.554</v>
       </c>
       <c r="D67" t="n">
-        <v>1.256</v>
+        <v>128.1333359426002</v>
       </c>
       <c r="E67" t="n">
-        <v>28.554</v>
-      </c>
-      <c r="F67" t="n">
-        <v>128.1333359426002</v>
-      </c>
-      <c r="G67" t="n">
         <v>44.21244140873895</v>
       </c>
     </row>
@@ -1987,22 +1713,18 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>5300108005029</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>5300108005029</t>
+        </is>
       </c>
       <c r="C68" t="n">
-        <v>3.336</v>
+        <v>25.798</v>
       </c>
       <c r="D68" t="n">
-        <v>1.208</v>
+        <v>131.6180178187412</v>
       </c>
       <c r="E68" t="n">
-        <v>25.798</v>
-      </c>
-      <c r="F68" t="n">
-        <v>131.6180178187412</v>
-      </c>
-      <c r="G68" t="n">
         <v>47.49698635599295</v>
       </c>
     </row>
@@ -2010,22 +1732,18 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
-        <v>5300108005030</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>5300108005030</t>
+        </is>
       </c>
       <c r="C69" t="n">
-        <v>3.7</v>
+        <v>31.76</v>
       </c>
       <c r="D69" t="n">
-        <v>1.37</v>
+        <v>118.3271751598748</v>
       </c>
       <c r="E69" t="n">
-        <v>31.76</v>
-      </c>
-      <c r="F69" t="n">
-        <v>118.3271751598748</v>
-      </c>
-      <c r="G69" t="n">
         <v>43.80566120639013</v>
       </c>
     </row>
@@ -2033,22 +1751,18 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>5300108005031</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>5300108005031</t>
+        </is>
       </c>
       <c r="C70" t="n">
-        <v>2.022</v>
+        <v>16.908</v>
       </c>
       <c r="D70" t="n">
-        <v>0.716</v>
+        <v>123.4907332686406</v>
       </c>
       <c r="E70" t="n">
-        <v>16.908</v>
-      </c>
-      <c r="F70" t="n">
-        <v>123.4907332686406</v>
-      </c>
-      <c r="G70" t="n">
         <v>43.44717752857808</v>
       </c>
     </row>
@@ -2056,22 +1770,18 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>5300108005032</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>5300108005032</t>
+        </is>
       </c>
       <c r="C71" t="n">
-        <v>2.81</v>
+        <v>23.678</v>
       </c>
       <c r="D71" t="n">
-        <v>1.014</v>
+        <v>120.1503202753126</v>
       </c>
       <c r="E71" t="n">
-        <v>23.678</v>
-      </c>
-      <c r="F71" t="n">
-        <v>120.1503202753126</v>
-      </c>
-      <c r="G71" t="n">
         <v>44.1058290317946</v>
       </c>
     </row>
@@ -2079,22 +1789,18 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
-        <v>5300108005033</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>5300108005033</t>
+        </is>
       </c>
       <c r="C72" t="n">
-        <v>3.742</v>
+        <v>33.012</v>
       </c>
       <c r="D72" t="n">
-        <v>1.342</v>
+        <v>115.648357431131</v>
       </c>
       <c r="E72" t="n">
-        <v>33.012</v>
-      </c>
-      <c r="F72" t="n">
-        <v>115.648357431131</v>
-      </c>
-      <c r="G72" t="n">
         <v>41.58063078644954</v>
       </c>
     </row>
@@ -2102,22 +1808,18 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
-        <v>5300108005034</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>5300108005034</t>
+        </is>
       </c>
       <c r="C73" t="n">
-        <v>1.734</v>
+        <v>15.844</v>
       </c>
       <c r="D73" t="n">
-        <v>0.614</v>
+        <v>113.2832550409262</v>
       </c>
       <c r="E73" t="n">
-        <v>15.844</v>
-      </c>
-      <c r="F73" t="n">
-        <v>113.2832550409262</v>
-      </c>
-      <c r="G73" t="n">
         <v>40.16161561072449</v>
       </c>
     </row>
@@ -2125,22 +1827,18 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>5300108005035</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>5300108005035</t>
+        </is>
       </c>
       <c r="C74" t="n">
-        <v>3.262</v>
+        <v>26.2</v>
       </c>
       <c r="D74" t="n">
-        <v>1.176</v>
+        <v>126.5102123413682</v>
       </c>
       <c r="E74" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F74" t="n">
-        <v>126.5102123413682</v>
-      </c>
-      <c r="G74" t="n">
         <v>45.43129614922431</v>
       </c>
     </row>
@@ -2148,22 +1846,18 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>5300108005036</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>5300108005036</t>
+        </is>
       </c>
       <c r="C75" t="n">
-        <v>2.572</v>
+        <v>22.318</v>
       </c>
       <c r="D75" t="n">
-        <v>0.868</v>
+        <v>117.0179671075288</v>
       </c>
       <c r="E75" t="n">
-        <v>22.318</v>
-      </c>
-      <c r="F75" t="n">
-        <v>117.0179671075288</v>
-      </c>
-      <c r="G75" t="n">
         <v>39.67953731571327</v>
       </c>
     </row>
@@ -2171,22 +1865,18 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
-        <v>5300108005037</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>5300108005037</t>
+        </is>
       </c>
       <c r="C76" t="n">
-        <v>3.178</v>
+        <v>24.892</v>
       </c>
       <c r="D76" t="n">
-        <v>1.178</v>
+        <v>130.0824024454023</v>
       </c>
       <c r="E76" t="n">
-        <v>24.892</v>
-      </c>
-      <c r="F76" t="n">
-        <v>130.0824024454023</v>
-      </c>
-      <c r="G76" t="n">
         <v>48.12245189974771</v>
       </c>
     </row>
@@ -2194,22 +1884,18 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>5300108005038</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>5300108005038</t>
+        </is>
       </c>
       <c r="C77" t="n">
-        <v>3.82</v>
+        <v>32.492</v>
       </c>
       <c r="D77" t="n">
-        <v>1.376</v>
+        <v>118.8868808639649</v>
       </c>
       <c r="E77" t="n">
-        <v>32.492</v>
-      </c>
-      <c r="F77" t="n">
-        <v>118.8868808639649</v>
-      </c>
-      <c r="G77" t="n">
         <v>42.51197036048939</v>
       </c>
     </row>
@@ -2217,22 +1903,18 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
-        <v>5300108005039</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>5300108005039</t>
+        </is>
       </c>
       <c r="C78" t="n">
-        <v>2.492</v>
+        <v>21.246</v>
       </c>
       <c r="D78" t="n">
-        <v>0.868</v>
+        <v>120.2256712893826</v>
       </c>
       <c r="E78" t="n">
-        <v>21.246</v>
-      </c>
-      <c r="F78" t="n">
-        <v>120.2256712893826</v>
-      </c>
-      <c r="G78" t="n">
         <v>42.15675240712169</v>
       </c>
     </row>
@@ -2240,22 +1922,18 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>5300108005040</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>5300108005040</t>
+        </is>
       </c>
       <c r="C79" t="n">
-        <v>3.2</v>
+        <v>27.87</v>
       </c>
       <c r="D79" t="n">
-        <v>1.188</v>
+        <v>116.9283299103793</v>
       </c>
       <c r="E79" t="n">
-        <v>27.87</v>
-      </c>
-      <c r="F79" t="n">
-        <v>116.9283299103793</v>
-      </c>
-      <c r="G79" t="n">
         <v>43.65716739704455</v>
       </c>
     </row>
@@ -2263,22 +1941,18 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
-        <v>5300108005041</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>5300108005041</t>
+        </is>
       </c>
       <c r="C80" t="n">
-        <v>3.852</v>
+        <v>31.256</v>
       </c>
       <c r="D80" t="n">
-        <v>1.348</v>
+        <v>124.9950246969284</v>
       </c>
       <c r="E80" t="n">
-        <v>31.256</v>
-      </c>
-      <c r="F80" t="n">
-        <v>124.9950246969284</v>
-      </c>
-      <c r="G80" t="n">
         <v>43.66937006600478</v>
       </c>
     </row>
@@ -2286,22 +1960,18 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
-        <v>5300108005042</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>5300108005042</t>
+        </is>
       </c>
       <c r="C81" t="n">
-        <v>5.39</v>
+        <v>45.144</v>
       </c>
       <c r="D81" t="n">
-        <v>1.896</v>
+        <v>120.0686150207965</v>
       </c>
       <c r="E81" t="n">
-        <v>45.144</v>
-      </c>
-      <c r="F81" t="n">
-        <v>120.0686150207965</v>
-      </c>
-      <c r="G81" t="n">
         <v>42.36818717031085</v>
       </c>
     </row>
@@ -2309,22 +1979,18 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
-        <v>5300108005043</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>5300108005043</t>
+        </is>
       </c>
       <c r="C82" t="n">
-        <v>3.888</v>
+        <v>33.51</v>
       </c>
       <c r="D82" t="n">
-        <v>1.4</v>
+        <v>118.0802650037062</v>
       </c>
       <c r="E82" t="n">
-        <v>33.51</v>
-      </c>
-      <c r="F82" t="n">
-        <v>118.0802650037062</v>
-      </c>
-      <c r="G82" t="n">
         <v>42.62946635715618</v>
       </c>
     </row>
@@ -2332,22 +1998,18 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
-        <v>5300108005044</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>5300108005044</t>
+        </is>
       </c>
       <c r="C83" t="n">
-        <v>2.944</v>
+        <v>23.866</v>
       </c>
       <c r="D83" t="n">
-        <v>1.062</v>
+        <v>126.3768766018598</v>
       </c>
       <c r="E83" t="n">
-        <v>23.866</v>
-      </c>
-      <c r="F83" t="n">
-        <v>126.3768766018598</v>
-      </c>
-      <c r="G83" t="n">
         <v>45.31990002042289</v>
       </c>
     </row>
@@ -2355,22 +2017,18 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
-        <v>5300108005045</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>5300108005045</t>
+        </is>
       </c>
       <c r="C84" t="n">
-        <v>2.842</v>
+        <v>22.522</v>
       </c>
       <c r="D84" t="n">
-        <v>1.018</v>
+        <v>126.8671381767964</v>
       </c>
       <c r="E84" t="n">
-        <v>22.522</v>
-      </c>
-      <c r="F84" t="n">
-        <v>126.8671381767964</v>
-      </c>
-      <c r="G84" t="n">
         <v>45.61330734818922</v>
       </c>
     </row>
@@ -2378,22 +2036,18 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
-        <v>5300108005046</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>5300108005046</t>
+        </is>
       </c>
       <c r="C85" t="n">
-        <v>2.01</v>
+        <v>17.72</v>
       </c>
       <c r="D85" t="n">
-        <v>0.704</v>
+        <v>117.92125735649</v>
       </c>
       <c r="E85" t="n">
-        <v>17.72</v>
-      </c>
-      <c r="F85" t="n">
-        <v>117.92125735649</v>
-      </c>
-      <c r="G85" t="n">
         <v>40.45543425825665</v>
       </c>
     </row>
@@ -2401,22 +2055,18 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
-        <v>5300108005047</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>5300108005047</t>
+        </is>
       </c>
       <c r="C86" t="n">
-        <v>2.236</v>
+        <v>18.724</v>
       </c>
       <c r="D86" t="n">
-        <v>0.75</v>
+        <v>122.2453848352772</v>
       </c>
       <c r="E86" t="n">
-        <v>18.724</v>
-      </c>
-      <c r="F86" t="n">
-        <v>122.2453848352772</v>
-      </c>
-      <c r="G86" t="n">
         <v>41.43068262243425</v>
       </c>
     </row>
@@ -2424,22 +2074,18 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
-        <v>5300108005048</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>5300108005048</t>
+        </is>
       </c>
       <c r="C87" t="n">
-        <v>2.636</v>
+        <v>21.182</v>
       </c>
       <c r="D87" t="n">
-        <v>0.996</v>
+        <v>128.0289323460443</v>
       </c>
       <c r="E87" t="n">
-        <v>21.182</v>
-      </c>
-      <c r="F87" t="n">
-        <v>128.0289323460443</v>
-      </c>
-      <c r="G87" t="n">
         <v>49.2903664756866</v>
       </c>
     </row>
@@ -2447,22 +2093,18 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
-        <v>5300108005049</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>5300108005049</t>
+        </is>
       </c>
       <c r="C88" t="n">
-        <v>1.012</v>
+        <v>8.224</v>
       </c>
       <c r="D88" t="n">
-        <v>0.378</v>
+        <v>130.286164652341</v>
       </c>
       <c r="E88" t="n">
-        <v>8.224</v>
-      </c>
-      <c r="F88" t="n">
-        <v>130.286164652341</v>
-      </c>
-      <c r="G88" t="n">
         <v>47.77913197913197</v>
       </c>
     </row>
@@ -2470,22 +2112,18 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
-        <v>5300108005050</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>5300108005050</t>
+        </is>
       </c>
       <c r="C89" t="n">
-        <v>3.236</v>
+        <v>22.486</v>
       </c>
       <c r="D89" t="n">
-        <v>1.152</v>
+        <v>145.8971516168976</v>
       </c>
       <c r="E89" t="n">
-        <v>22.486</v>
-      </c>
-      <c r="F89" t="n">
-        <v>145.8971516168976</v>
-      </c>
-      <c r="G89" t="n">
         <v>52.93729176940458</v>
       </c>
     </row>
@@ -2493,22 +2131,18 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
-        <v>5300108005051</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>5300108005051</t>
+        </is>
       </c>
       <c r="C90" t="n">
-        <v>2.69</v>
+        <v>21.516</v>
       </c>
       <c r="D90" t="n">
-        <v>0.994</v>
+        <v>128.3802286626336</v>
       </c>
       <c r="E90" t="n">
-        <v>21.516</v>
-      </c>
-      <c r="F90" t="n">
-        <v>128.3802286626336</v>
-      </c>
-      <c r="G90" t="n">
         <v>46.92091250669552</v>
       </c>
     </row>
